--- a/5- Testing/Bug Reports.xlsx
+++ b/5- Testing/Bug Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Add Car" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Bug _ID</t>
   </si>
@@ -102,13 +102,52 @@
   </si>
   <si>
     <t>Assigned</t>
+  </si>
+  <si>
+    <t>Bug_Add_Car_001</t>
+  </si>
+  <si>
+    <t>TC-UploadCar-
+11</t>
+  </si>
+  <si>
+    <t>Verify that an error message 
+should appear if the admin,
+ upload a pdf file instead of a image.</t>
+  </si>
+  <si>
+    <t>1- browser is available 
+2- Login as admin successfully</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press "add button" in home page.
+2. Upload pdf file.
+3. Choose " toyota" from brand dropdown list .
+4. Choose  " Toyota " from car model dropdown list.
+5.Fill in "500,000" in the price field.
+6. Fill in " Hello " in the description field.
+7. Click on the "Cancel" button
+</t>
+  </si>
+  <si>
+    <t>1. An error message "Please upload an image" should be displayed.
+2. The file should not be added to the car list on the home page.</t>
+  </si>
+  <si>
+    <t>The system accepts PDFs file only (as it's the same extension as iamges)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +180,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +220,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,11 +256,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -209,6 +293,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,12 +601,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="8" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.21875" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
+    <col min="15" max="15" width="27.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="12" customFormat="1" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="14">
+        <v>45070</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -504,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
